--- a/StructureDefinition-Collection.xlsx
+++ b/StructureDefinition-Collection.xlsx
@@ -651,7 +651,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bbmri-id-local:Shall contain only the local collection id, should only consist of roman letters and numbers. {matches('^([a-zA-Z\\d])+$')}</t>
+bbmri-id-local:Shall contain the biobank ID followed by the local collection id. {matches('^bbmri-eric:ID:([A-Z]){2}_([a-zA-Z\\d])+:collection:([a-zA-Z\\d])+$')}</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>

--- a/StructureDefinition-Collection.xlsx
+++ b/StructureDefinition-Collection.xlsx
@@ -651,7 +651,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bbmri-id-local:Shall contain the biobank ID followed by the local collection id. {matches('^bbmri-eric:ID:([A-Z]){2}_([a-zA-Z\\d])+:collection:([a-zA-Z\\d])+$')}</t>
+bbmri-id-local:Shall contain the biobank ID followed by the local collection id. {matches('^bbmri-eric:ID:([A-Z]){2}_([a-zA-Z0-9])+:collection:([a-zA-Z0-9])+$')}</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>

--- a/StructureDefinition-Collection.xlsx
+++ b/StructureDefinition-Collection.xlsx
@@ -340,6 +340,12 @@
 </t>
   </si>
   <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -362,12 +368,6 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.bbmri.de/StructureDefinition/ParentCollection}
 </t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>collectionType</t>
@@ -1180,8 +1180,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23T00:00:00+00:00"/&gt;
-  &lt;end value="2010-07-01T00:00:00+00:00"/&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
@@ -3119,10 +3119,10 @@
         <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3182,7 +3182,7 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>100</v>
@@ -3191,7 +3191,7 @@
         <v>40</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
@@ -3205,7 +3205,7 @@
         <v>93</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>40</v>
@@ -3227,13 +3227,13 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3293,7 +3293,7 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>100</v>
@@ -3316,7 +3316,7 @@
         <v>93</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
@@ -3338,13 +3338,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>100</v>
@@ -3452,10 +3452,10 @@
         <v>113</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3515,7 +3515,7 @@
         <v>42</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>100</v>
@@ -3524,7 +3524,7 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -3563,10 +3563,10 @@
         <v>115</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3626,7 +3626,7 @@
         <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>100</v>
@@ -3674,10 +3674,10 @@
         <v>117</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3737,7 +3737,7 @@
         <v>42</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>100</v>
@@ -3848,7 +3848,7 @@
         <v>42</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>100</v>
@@ -3959,7 +3959,7 @@
         <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>100</v>
@@ -4070,7 +4070,7 @@
         <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>100</v>
@@ -4181,7 +4181,7 @@
         <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>100</v>
@@ -8964,7 +8964,7 @@
         <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>100</v>

--- a/StructureDefinition-Collection.xlsx
+++ b/StructureDefinition-Collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T15:55:49+00:00</t>
+    <t>2022-05-16T14:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Collection.xlsx
+++ b/StructureDefinition-Collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:46:52+00:00</t>
+    <t>2023-09-01T11:58:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
